--- a/Unity/Assets/Config/Excel/Data/MonsterGroupConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/MonsterGroupConfig.xlsx
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1179,13 +1179,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>10.64</v>
       </c>
       <c r="E4">
-        <v>237</v>
+        <v>48.8</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -1196,13 +1196,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>10.64</v>
       </c>
       <c r="E5">
-        <v>257</v>
+        <v>48.8</v>
       </c>
       <c r="F5">
         <v>10</v>
